--- a/Excel/Práctica/5. Impresión en Excel/Cabecero y pie de pagina en Excel, ajustar elementos en una hoja, impresión de títulos.xlsx
+++ b/Excel/Práctica/5. Impresión en Excel/Cabecero y pie de pagina en Excel, ajustar elementos en una hoja, impresión de títulos.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -1003,6 +1003,169 @@
   <si>
     <t>Por último podemos decidir si queremos que la primera página sea diferente a las demás o, bien, decidir si queremos diferenciar el diseño de las páginas pares del diseño de las páginas impares.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En el ejercicio de dar diseño de impresión en Excel, como lo estamos haciendo ahora, usted puede asistirse de una correcta configuración de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orientación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de sus páginas para aprovechar al máximo los espacios de ellas; como por ejemplo, en los casos en los que requiere hacer uso de una orientación </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>horizontal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cuando precisa de más espacio a lo ancho de dichas páginas (como lo es este caso). Si se fija, al configurar este Excel con diseño de impresión en esta hoja de cálculo, ahora las columnas caben a lo ancho de sus páginas (anteriormente no). Sin embargo sepa que a la final todo depende de sus propias necesidades, en otras ocasiones quizas sería mejor optar por una orientación </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vertical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sin embargo, existe una manera más eficiente y precisa de hacer </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">caber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nuestro contenido, cualquiera que deseemos, dentro de una misma página de Excel al darle diseño de impresión a una hoja de cálculo en cuestión. ¿Nota las líneas azules de trazo intermitente situadas sobre esta misma hoja de cálculo, las que se ven con un diseño </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? Esas son, justamente, las encargadas de delimitar los cortes de información a la hora de separar una página de otra.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> Así se ajustaría de manera efectiva los elementos dentro de una misma página al darle a la hoja de Excel un diseño de impresión. A este proceso se le llama: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">Escalamiento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">y también se puede configurar manualmente en la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">Configurar página </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">de la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>Diseño de página.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1011,7 +1174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1093,6 +1256,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Cuerpo)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Cuerpo)"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Cuerpo)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1163,7 +1344,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1173,6 +1354,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1860,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1925,16 +2109,16 @@
       <c r="G2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1958,14 +2142,14 @@
       <c r="G3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1989,14 +2173,14 @@
       <c r="G4" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2020,14 +2204,14 @@
       <c r="G5" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2051,14 +2235,14 @@
       <c r="G6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2079,14 +2263,14 @@
       <c r="G7" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2110,14 +2294,14 @@
       <c r="G8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2141,14 +2325,14 @@
       <c r="G9" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2172,14 +2356,14 @@
       <c r="G10" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2203,14 +2387,14 @@
       <c r="G11" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2234,14 +2418,14 @@
       <c r="G12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2265,14 +2449,14 @@
       <c r="G13" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2296,14 +2480,14 @@
       <c r="G14" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2327,14 +2511,14 @@
       <c r="G15" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2358,14 +2542,14 @@
       <c r="G16" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2389,14 +2573,14 @@
       <c r="G17" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2420,14 +2604,14 @@
       <c r="G18" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2471,12 +2655,12 @@
       <c r="G20" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2615,16 +2799,16 @@
       <c r="G26" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2648,14 +2832,14 @@
       <c r="G27" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2679,14 +2863,14 @@
       <c r="G28" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2710,14 +2894,14 @@
       <c r="G29" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2764,18 +2948,18 @@
       <c r="G31" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -2797,16 +2981,16 @@
       <c r="G32" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -2828,8 +3012,16 @@
       <c r="G33" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -2852,7 +3044,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -2874,8 +3066,18 @@
       <c r="G35" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -2897,8 +3099,16 @@
       <c r="G36" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -2920,8 +3130,16 @@
       <c r="G37" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2943,8 +3161,16 @@
       <c r="G38" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -2966,8 +3192,16 @@
       <c r="G39" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -2989,8 +3223,16 @@
       <c r="G40" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -3012,8 +3254,16 @@
       <c r="G41" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -3036,7 +3286,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -3058,8 +3308,18 @@
       <c r="G43" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -3081,8 +3341,16 @@
       <c r="G44" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+    </row>
+    <row r="45" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -3104,8 +3372,16 @@
       <c r="G45" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+    </row>
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -3127,8 +3403,16 @@
       <c r="G46" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -3150,8 +3434,16 @@
       <c r="G47" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -3173,8 +3465,16 @@
       <c r="G48" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+    </row>
+    <row r="49" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -3196,8 +3496,16 @@
       <c r="G49" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3219,8 +3527,16 @@
       <c r="G50" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+    </row>
+    <row r="51" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3243,7 +3559,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3266,7 +3582,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3289,7 +3605,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3312,7 +3628,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3335,7 +3651,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3358,7 +3674,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3381,7 +3697,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3404,7 +3720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3427,7 +3743,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3450,7 +3766,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -3473,7 +3789,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3496,7 +3812,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3519,7 +3835,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -6480,7 +6796,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>200</v>
       </c>
@@ -6502,26 +6818,41 @@
       <c r="G193" s="5" t="s">
         <v>275</v>
       </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G193">
     <sortCondition ref="A2"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="I43:P50"/>
+    <mergeCell ref="I35:P41"/>
+    <mergeCell ref="I31:P32"/>
     <mergeCell ref="I2:P18"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I26:P29"/>
-    <mergeCell ref="I31:P32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;P de &amp;N</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="16383" man="1"/>
+  </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="10" max="1048575" man="1"/>
+    <brk id="8" max="1048575" man="1"/>
     <brk id="31" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>

--- a/Excel/Práctica/5. Impresión en Excel/Cabecero y pie de pagina en Excel, ajustar elementos en una hoja, impresión de títulos.xlsx
+++ b/Excel/Práctica/5. Impresión en Excel/Cabecero y pie de pagina en Excel, ajustar elementos en una hoja, impresión de títulos.xlsx
@@ -18,6 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabla!$A$1:$F$193</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Tabla!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabla!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -1164,6 +1165,197 @@
         <rFont val="Calibri (Cuerpo)"/>
       </rPr>
       <t>Diseño de página.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Command + P </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">si desea ir a imprimir directamente y tener más recursos a su disposición sobre cómo desea imprimir sus páginas de Excel, en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mostrar más dellalles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">podrá personalizar margenes, elegir el tamaño del papel (A4 es el más común) y escoger la orientación, entre otros recursos. Cuando se habla de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">intercalar páginas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">se refiere a que, en caso que desee sacar varias copias de las páginas seleccionadas a imprimir, las saqué de forma </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">intercaladas; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es decir, que pase por todas las páginas seleccionadas para imprimir en cuestión, una a una, imprima la primera copia de cada una de ellas y luego vuelva a pasar por ellas desde su punto de inicio y, entonces ahí, saque una segunda tanda de copias (es decir, que no saque todas las copias requeridas de una misma página de un solo tiro, no, sino que se saquen las copias página por página, una por una, hasta dar con la última y rebobinar.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ahora, si se fija, el título de la primera página de la hoja se pierde en las demás páginas (deja de verse), lo cual le podría quitar contexto o referencia al contenido de las mismas (de las páginas posteriores a la primera página). Nada de qué preocuparse, esto tiene una solución. Si usted desea podría establecer que en la impresión de todas las páginas, de su hoja de cálculo, siempre se vea evidenciado el título de la primera (para referenciarlas, como bien se dijo). Para configurar esta opción primero debe irse a la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Diseño de página </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y luego hacer click en </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Imprimir títulos. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Estando ahí, en </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imprimir títulos,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">se dirige a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repetir filas en extremo superior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>selecciona la fila (o las filas) representativas al título de su hoja de cálculo (la que evidencia su primera página para imprimir).</t>
     </r>
   </si>
 </sst>
@@ -2046,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3751,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3581,6 +3773,16 @@
       <c r="G52" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="I52" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
     </row>
     <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -3604,6 +3806,14 @@
       <c r="G53" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
     </row>
     <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -3627,6 +3837,14 @@
       <c r="G54" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
     </row>
     <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -3650,6 +3868,14 @@
       <c r="G55" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
     </row>
     <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -3673,6 +3899,14 @@
       <c r="G56" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -3696,6 +3930,14 @@
       <c r="G57" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -3719,6 +3961,14 @@
       <c r="G58" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -3742,6 +3992,14 @@
       <c r="G59" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -3765,6 +4023,14 @@
       <c r="G60" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -3789,7 +4055,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3811,6 +4077,16 @@
       <c r="G62" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="I62" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -3834,6 +4110,14 @@
       <c r="G63" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
     </row>
     <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -3857,8 +4141,16 @@
       <c r="G64" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -3877,8 +4169,16 @@
       <c r="G65" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -3900,8 +4200,16 @@
       <c r="G66" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>68</v>
       </c>
@@ -3923,8 +4231,16 @@
       <c r="G67" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>69</v>
       </c>
@@ -3946,8 +4262,16 @@
       <c r="G68" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>70</v>
       </c>
@@ -3969,8 +4293,16 @@
       <c r="G69" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>71</v>
       </c>
@@ -3993,7 +4325,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>73</v>
       </c>
@@ -4016,7 +4348,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>74</v>
       </c>
@@ -4039,7 +4371,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>75</v>
       </c>
@@ -4062,7 +4394,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>76</v>
       </c>
@@ -4085,7 +4417,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>77</v>
       </c>
@@ -4108,7 +4440,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>78</v>
       </c>
@@ -4131,7 +4463,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>79</v>
       </c>
@@ -4154,7 +4486,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>80</v>
       </c>
@@ -4177,7 +4509,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>81</v>
       </c>
@@ -4200,7 +4532,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>82</v>
       </c>
@@ -6833,7 +7165,9 @@
   <sortState ref="A2:G193">
     <sortCondition ref="A2"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="I52:P60"/>
+    <mergeCell ref="I62:P69"/>
     <mergeCell ref="I43:P50"/>
     <mergeCell ref="I35:P41"/>
     <mergeCell ref="I31:P32"/>
@@ -6843,13 +7177,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="3" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;P de &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="33" max="16383" man="1"/>
+    <brk id="70" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="8" max="1048575" man="1"/>

--- a/Excel/Práctica/5. Impresión en Excel/Cabecero y pie de pagina en Excel, ajustar elementos en una hoja, impresión de títulos.xlsx
+++ b/Excel/Práctica/5. Impresión en Excel/Cabecero y pie de pagina en Excel, ajustar elementos en una hoja, impresión de títulos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Excel/Práctica/5. Impresión en Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Excel/Práctica/5. Impresión en Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1072,103 +1072,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Sin embargo, existe una manera más eficiente y precisa de hacer </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">caber </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nuestro contenido, cualquiera que deseemos, dentro de una misma página de Excel al darle diseño de impresión a una hoja de cálculo en cuestión. ¿Nota las líneas azules de trazo intermitente situadas sobre esta misma hoja de cálculo, las que se ven con un diseño </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>normal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>? Esas son, justamente, las encargadas de delimitar los cortes de información a la hora de separar una página de otra.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve"> Así se ajustaría de manera efectiva los elementos dentro de una misma página al darle a la hoja de Excel un diseño de impresión. A este proceso se le llama: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">Escalamiento </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">y también se puede configurar manualmente en la opción </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">Configurar página </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">de la pestaña </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t>Diseño de página.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <i/>
@@ -1356,6 +1259,123 @@
         <scheme val="minor"/>
       </rPr>
       <t>selecciona la fila (o las filas) representativas al título de su hoja de cálculo (la que evidencia su primera página para imprimir).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sin embargo, existe una manera más eficiente y precisa de hacer </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">caber </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nuestro contenido, cualquiera que deseemos, dentro de una misma página de Excel al darle diseño de impresión a una hoja de cálculo en cuestión. ¿Nota las líneas azules de trazo intermitente situadas sobre esta misma hoja de cálculo, las que se ven con un diseño </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">normal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">luego de hacer click en </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diseño de página</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? Esas son, justamente, las encargadas de delimitar los cortes de información a la hora de separar una página de otra.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> Así se ajustaría de manera efectiva los elementos dentro de una misma página al darle a la hoja de Excel un diseño de impresión. A este proceso se le llama: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">Escalamiento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">y también se puede configurar manualmente en la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">Configurar página </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">de la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>Diseño de página.</t>
     </r>
   </si>
 </sst>
@@ -2238,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3501,7 +3521,7 @@
         <v>274</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -3774,7 +3794,7 @@
         <v>276</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -4078,7 +4098,7 @@
         <v>276</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
@@ -7166,14 +7186,14 @@
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="I2:P18"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I26:P29"/>
     <mergeCell ref="I52:P60"/>
     <mergeCell ref="I62:P69"/>
     <mergeCell ref="I43:P50"/>
     <mergeCell ref="I35:P41"/>
     <mergeCell ref="I31:P32"/>
-    <mergeCell ref="I2:P18"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I26:P29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7213,7 +7233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
